--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed4/result_data_RandomForest.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.001199999999999</v>
+        <v>8.856799999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.123500000000005</v>
+        <v>-8.211000000000006</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.783700000000003</v>
+        <v>-7.519400000000003</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.09369999999999</v>
+        <v>-22.1751</v>
       </c>
       <c r="B9" t="n">
-        <v>6.372800000000005</v>
+        <v>6.569700000000007</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.9254</v>
+        <v>-12.05619999999999</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.987599999999997</v>
+        <v>-6.91229999999999</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.148699999999995</v>
+        <v>-8.130599999999992</v>
       </c>
     </row>
     <row r="16">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.04300000000002</v>
+        <v>-22.14120000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.61349999999998</v>
+        <v>-19.92159999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.917199999999998</v>
+        <v>8.907799999999998</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.3405</v>
+        <v>4.959899999999999</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.021800000000002</v>
+        <v>5.625700000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.98509999999999</v>
+        <v>-21.95189999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.920900000000002</v>
+        <v>-7.248999999999995</v>
       </c>
     </row>
     <row r="31">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.62500000000001</v>
+        <v>-12.48710000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.390500000000005</v>
+        <v>9.508000000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.816000000000004</v>
+        <v>8.70070000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.73880000000001</v>
+        <v>-11.9412</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.123400000000002</v>
+        <v>-8.193799999999994</v>
       </c>
     </row>
     <row r="40">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.391900000000006</v>
+        <v>-7.332700000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.85569999999998</v>
+        <v>-14.06169999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.275400000000002</v>
+        <v>-7.397799999999997</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.688100000000004</v>
+        <v>5.501300000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.26819999999999</v>
+        <v>-11.39549999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.396899999999999</v>
+        <v>5.654499999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.10319999999999</v>
+        <v>-13.99649999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.07279999999999</v>
+        <v>-10.22339999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.848499999999996</v>
+        <v>5.899699999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.559299999999997</v>
+        <v>5.345800000000002</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58749999999998</v>
+        <v>-21.63429999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1488,12 +1488,12 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.788499999999998</v>
+        <v>-7.629499999999998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.60259999999999</v>
+        <v>-19.58219999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.593799999999993</v>
+        <v>9.684299999999997</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6921</v>
+        <v>-21.67580000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.418100000000001</v>
+        <v>-7.707199999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.151800000000005</v>
+        <v>-6.377600000000002</v>
       </c>
     </row>
     <row r="93">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.204</v>
+        <v>-10.42139999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.634999999999998</v>
+        <v>5.7197</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
